--- a/6node/output_all.xlsx
+++ b/6node/output_all.xlsx
@@ -462,19 +462,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3528.085285039531</v>
+        <v>242.245169555222</v>
       </c>
       <c r="B2" t="n">
-        <v>46.46868180542518</v>
+        <v>159.7870462081287</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1820.392602918578</v>
       </c>
       <c r="D2" t="n">
-        <v>67.28687466839195</v>
+        <v>231.3724111404355</v>
       </c>
       <c r="E2" t="n">
-        <v>56.09689081040742</v>
+        <v>192.8945719094686</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>140.8977006596687</v>
+        <v>484.490339110444</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>92.93736361085035</v>
+        <v>319.5740924162574</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.8977006596687</v>
+        <v>484.490339110444</v>
       </c>
       <c r="C4" t="n">
-        <v>92.93736361085035</v>
+        <v>319.5740924162574</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>134.5737493367839</v>
+        <v>462.7448222808709</v>
       </c>
       <c r="F4" t="n">
-        <v>112.1937816208148</v>
+        <v>385.7891438189372</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>134.5737493367839</v>
+        <v>462.7448222808709</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>112.1937816208148</v>
+        <v>385.7891438189372</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0.5744187686318494</v>
       </c>
       <c r="D2" t="n">
-        <v>0.53229103959436</v>
+        <v>0.5322910395943601</v>
       </c>
       <c r="E2" t="n">
         <v>0.5658758749171899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5735098014949679</v>
+        <v>0.5735098014949678</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6231401276129525</v>
+        <v>0.6231401276129523</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0.4814652071380661</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5706712916985691</v>
+        <v>0.570671291698569</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6197310631247662</v>
+        <v>0.6197310631247661</v>
       </c>
       <c r="C4" t="n">
         <v>0.6191044503274021</v>
@@ -801,7 +801,7 @@
         <v>0.5496487847733729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5675446526879306</v>
+        <v>0.5675446526879308</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7245196260611177</v>
+        <v>0.7245196260611175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5706712916985691</v>
+        <v>0.570671291698569</v>
       </c>
       <c r="D6" t="n">
         <v>0.6950001399731376</v>
@@ -946,13 +946,13 @@
         <v>0.4255812313681506</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46770896040564</v>
+        <v>0.4677089604056399</v>
       </c>
       <c r="E2" t="n">
         <v>0.4341241250828101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4264901985050321</v>
+        <v>0.4264901985050322</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3768598723870476</v>
+        <v>0.3768598723870477</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0.5185347928619339</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4293287083014309</v>
+        <v>0.429328708301431</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3802689368752338</v>
+        <v>0.3802689368752339</v>
       </c>
       <c r="C4" t="n">
         <v>0.3808955496725979</v>
@@ -1002,7 +1002,7 @@
         <v>0.4503512152266271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4324553473120694</v>
+        <v>0.4324553473120692</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0.4460226052021969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4213696087073874</v>
+        <v>0.4213696087073875</v>
       </c>
       <c r="D5" t="n">
         <v>0.3775086564960841</v>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2754803739388823</v>
+        <v>0.2754803739388825</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4293287083014309</v>
+        <v>0.429328708301431</v>
       </c>
       <c r="D6" t="n">
         <v>0.3049998600268624</v>
@@ -1165,9 +1165,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1177,19 +1174,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v/>
@@ -1198,9 +1195,6 @@
         <v/>
       </c>
       <c r="H3" t="n">
-        <v/>
-      </c>
-      <c r="I3" t="n">
         <v/>
       </c>
     </row>
@@ -1212,7 +1206,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1221,7 +1215,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -1230,12 +1224,9 @@
         <v/>
       </c>
       <c r="G4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v/>
-      </c>
-      <c r="I4" t="n">
         <v/>
       </c>
     </row>
@@ -1247,7 +1238,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1256,7 +1247,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -1268,16 +1259,13 @@
         <v/>
       </c>
       <c r="H5" t="n">
-        <v/>
-      </c>
-      <c r="I5" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1287,7 +1275,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1297,22 +1285,19 @@
         <v/>
       </c>
       <c r="F6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v/>
-      </c>
-      <c r="I6" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1322,14 +1307,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F7" t="n">
         <v/>
@@ -1338,16 +1323,13 @@
         <v/>
       </c>
       <c r="H7" t="n">
-        <v/>
-      </c>
-      <c r="I7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1361,7 +1343,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -1373,16 +1355,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v/>
-      </c>
-      <c r="I8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1396,7 +1375,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -1409,15 +1388,12 @@
       </c>
       <c r="H9" t="n">
         <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1427,7 +1403,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1443,21 +1419,18 @@
         <v/>
       </c>
       <c r="H10" t="n">
-        <v/>
-      </c>
-      <c r="I10" t="n">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1466,10 +1439,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v/>
@@ -1478,30 +1451,27 @@
         <v/>
       </c>
       <c r="H11" t="n">
-        <v/>
-      </c>
-      <c r="I11" t="n">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -1510,24 +1480,21 @@
         <v/>
       </c>
       <c r="G12" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v/>
-      </c>
-      <c r="I12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1536,7 +1503,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -1548,26 +1515,23 @@
         <v/>
       </c>
       <c r="H13" t="n">
-        <v/>
-      </c>
-      <c r="I13" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1583,21 +1547,18 @@
         <v/>
       </c>
       <c r="H14" t="n">
-        <v/>
-      </c>
-      <c r="I14" t="n">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1606,10 +1567,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v/>
@@ -1618,30 +1579,27 @@
         <v/>
       </c>
       <c r="H15" t="n">
-        <v/>
-      </c>
-      <c r="I15" t="n">
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -1653,61 +1611,55 @@
         <v/>
       </c>
       <c r="H16" t="n">
-        <v/>
-      </c>
-      <c r="I16" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v/>
       </c>
       <c r="H17" t="n">
-        <v/>
-      </c>
-      <c r="I17" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1723,21 +1675,18 @@
         <v/>
       </c>
       <c r="H18" t="n">
-        <v/>
-      </c>
-      <c r="I18" t="n">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1746,10 +1695,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E19" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v/>
@@ -1758,30 +1707,27 @@
         <v/>
       </c>
       <c r="H19" t="n">
-        <v/>
-      </c>
-      <c r="I19" t="n">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E20" t="n">
         <v/>
@@ -1790,47 +1736,41 @@
         <v/>
       </c>
       <c r="G20" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v/>
-      </c>
-      <c r="I20" t="n">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v/>
-      </c>
-      <c r="I21" t="n">
         <v/>
       </c>
     </row>
@@ -1853,21 +1793,6 @@
       <c r="D22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
-        <v/>
-      </c>
-      <c r="F22" t="n">
-        <v/>
-      </c>
-      <c r="G22" t="n">
-        <v/>
-      </c>
-      <c r="H22" t="n">
-        <v/>
-      </c>
-      <c r="I22" t="n">
-        <v/>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1885,23 +1810,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v/>
-      </c>
       <c r="E23" t="n">
         <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v/>
-      </c>
-      <c r="G23" t="n">
-        <v/>
-      </c>
-      <c r="H23" t="n">
-        <v/>
-      </c>
-      <c r="I23" t="n">
-        <v/>
       </c>
     </row>
     <row r="24">
@@ -1920,23 +1830,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v/>
-      </c>
       <c r="E24" t="n">
         <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v/>
-      </c>
-      <c r="G24" t="n">
-        <v/>
-      </c>
-      <c r="H24" t="n">
-        <v/>
-      </c>
-      <c r="I24" t="n">
-        <v/>
       </c>
     </row>
     <row r="25">
@@ -1955,23 +1850,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v/>
-      </c>
       <c r="E25" t="n">
         <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v/>
-      </c>
-      <c r="G25" t="n">
-        <v/>
-      </c>
-      <c r="H25" t="n">
-        <v/>
-      </c>
-      <c r="I25" t="n">
-        <v/>
       </c>
     </row>
     <row r="26">
@@ -1990,23 +1870,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v/>
-      </c>
       <c r="E26" t="n">
         <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v/>
-      </c>
-      <c r="G26" t="n">
-        <v/>
-      </c>
-      <c r="H26" t="n">
-        <v/>
-      </c>
-      <c r="I26" t="n">
-        <v/>
       </c>
     </row>
     <row r="27">
@@ -2026,10 +1891,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v/>
+        <v>0.9999999999999984</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -2039,9 +1901,6 @@
       </c>
       <c r="H27" t="n">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v/>
       </c>
     </row>
     <row r="28">
@@ -2061,22 +1920,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v/>
-      </c>
-      <c r="G28" t="n">
-        <v/>
-      </c>
-      <c r="H28" t="n">
-        <v/>
-      </c>
-      <c r="I28" t="n">
-        <v/>
       </c>
     </row>
     <row r="29">
@@ -2095,23 +1942,11 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v/>
-      </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="n">
-        <v/>
-      </c>
       <c r="G29" t="n">
         <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v/>
-      </c>
-      <c r="I29" t="n">
-        <v/>
       </c>
     </row>
     <row r="30">
@@ -2130,23 +1965,11 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v/>
-      </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
-        <v/>
-      </c>
-      <c r="G30" t="n">
-        <v/>
-      </c>
       <c r="H30" t="n">
         <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v/>
       </c>
     </row>
     <row r="31">
@@ -2165,23 +1988,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v/>
-      </c>
       <c r="E31" t="n">
         <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v/>
-      </c>
-      <c r="G31" t="n">
-        <v/>
-      </c>
-      <c r="H31" t="n">
-        <v/>
-      </c>
-      <c r="I31" t="n">
-        <v/>
       </c>
     </row>
     <row r="32">
@@ -2200,23 +2008,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v/>
-      </c>
       <c r="E32" t="n">
         <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v/>
-      </c>
-      <c r="G32" t="n">
-        <v/>
-      </c>
-      <c r="H32" t="n">
-        <v/>
-      </c>
-      <c r="I32" t="n">
-        <v/>
       </c>
     </row>
     <row r="33">
@@ -2235,23 +2028,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v/>
-      </c>
       <c r="E33" t="n">
         <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v/>
-      </c>
-      <c r="G33" t="n">
-        <v/>
-      </c>
-      <c r="H33" t="n">
-        <v/>
-      </c>
-      <c r="I33" t="n">
-        <v/>
       </c>
     </row>
     <row r="34">
@@ -2270,23 +2048,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v/>
-      </c>
       <c r="E34" t="n">
         <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v/>
-      </c>
-      <c r="G34" t="n">
-        <v/>
-      </c>
-      <c r="H34" t="n">
-        <v/>
-      </c>
-      <c r="I34" t="n">
-        <v/>
       </c>
     </row>
     <row r="35">
@@ -2305,23 +2068,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v/>
-      </c>
       <c r="E35" t="n">
         <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v/>
-      </c>
-      <c r="G35" t="n">
-        <v/>
-      </c>
-      <c r="H35" t="n">
-        <v/>
-      </c>
-      <c r="I35" t="n">
-        <v/>
       </c>
     </row>
     <row r="36">
@@ -2340,23 +2088,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v/>
-      </c>
       <c r="E36" t="n">
         <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v/>
-      </c>
-      <c r="G36" t="n">
-        <v/>
-      </c>
-      <c r="H36" t="n">
-        <v/>
-      </c>
-      <c r="I36" t="n">
-        <v/>
       </c>
     </row>
     <row r="37">
@@ -2375,23 +2108,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v/>
-      </c>
       <c r="E37" t="n">
         <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v/>
-      </c>
-      <c r="G37" t="n">
-        <v/>
-      </c>
-      <c r="H37" t="n">
-        <v/>
-      </c>
-      <c r="I37" t="n">
-        <v/>
       </c>
     </row>
     <row r="38">
@@ -2410,23 +2128,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v/>
-      </c>
       <c r="E38" t="n">
         <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v/>
-      </c>
-      <c r="G38" t="n">
-        <v/>
-      </c>
-      <c r="H38" t="n">
-        <v/>
-      </c>
-      <c r="I38" t="n">
-        <v/>
       </c>
     </row>
     <row r="39">
@@ -2445,23 +2148,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v/>
-      </c>
       <c r="E39" t="n">
         <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v/>
-      </c>
-      <c r="G39" t="n">
-        <v/>
-      </c>
-      <c r="H39" t="n">
-        <v/>
-      </c>
-      <c r="I39" t="n">
-        <v/>
       </c>
     </row>
     <row r="40">
@@ -2480,23 +2168,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v/>
-      </c>
       <c r="E40" t="n">
         <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v/>
-      </c>
-      <c r="G40" t="n">
-        <v/>
-      </c>
-      <c r="H40" t="n">
-        <v/>
-      </c>
-      <c r="I40" t="n">
-        <v/>
       </c>
     </row>
     <row r="41">
@@ -2515,23 +2188,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v/>
-      </c>
       <c r="E41" t="n">
         <v>1</v>
-      </c>
-      <c r="F41" t="n">
-        <v/>
-      </c>
-      <c r="G41" t="n">
-        <v/>
-      </c>
-      <c r="H41" t="n">
-        <v/>
-      </c>
-      <c r="I41" t="n">
-        <v/>
       </c>
     </row>
     <row r="42">
@@ -2550,23 +2208,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v/>
-      </c>
       <c r="E42" t="n">
         <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v/>
-      </c>
-      <c r="G42" t="n">
-        <v/>
-      </c>
-      <c r="H42" t="n">
-        <v/>
-      </c>
-      <c r="I42" t="n">
-        <v/>
       </c>
     </row>
     <row r="43">
@@ -2585,23 +2228,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v/>
-      </c>
       <c r="E43" t="n">
         <v>1</v>
-      </c>
-      <c r="F43" t="n">
-        <v/>
-      </c>
-      <c r="G43" t="n">
-        <v/>
-      </c>
-      <c r="H43" t="n">
-        <v/>
-      </c>
-      <c r="I43" t="n">
-        <v/>
       </c>
     </row>
     <row r="44">
@@ -2620,23 +2248,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v/>
-      </c>
-      <c r="E44" t="n">
-        <v/>
-      </c>
       <c r="F44" t="n">
         <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v/>
-      </c>
-      <c r="H44" t="n">
-        <v/>
-      </c>
-      <c r="I44" t="n">
-        <v/>
       </c>
     </row>
     <row r="45">
@@ -2655,23 +2268,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v/>
-      </c>
-      <c r="E45" t="n">
-        <v/>
-      </c>
       <c r="F45" t="n">
         <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v/>
-      </c>
-      <c r="H45" t="n">
-        <v/>
-      </c>
-      <c r="I45" t="n">
-        <v/>
       </c>
     </row>
     <row r="46">
@@ -2690,23 +2288,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v/>
-      </c>
-      <c r="E46" t="n">
-        <v/>
-      </c>
       <c r="F46" t="n">
         <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v/>
-      </c>
-      <c r="H46" t="n">
-        <v/>
-      </c>
-      <c r="I46" t="n">
-        <v/>
       </c>
     </row>
     <row r="47">
@@ -2725,23 +2308,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v/>
-      </c>
-      <c r="E47" t="n">
-        <v/>
-      </c>
       <c r="F47" t="n">
         <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v/>
-      </c>
-      <c r="H47" t="n">
-        <v/>
-      </c>
-      <c r="I47" t="n">
-        <v/>
       </c>
     </row>
     <row r="48">
@@ -2760,23 +2328,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v/>
-      </c>
-      <c r="E48" t="n">
-        <v/>
-      </c>
       <c r="F48" t="n">
         <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v/>
-      </c>
-      <c r="H48" t="n">
-        <v/>
-      </c>
-      <c r="I48" t="n">
-        <v/>
       </c>
     </row>
     <row r="49">
@@ -2795,23 +2348,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v/>
-      </c>
-      <c r="E49" t="n">
-        <v/>
-      </c>
       <c r="F49" t="n">
         <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v/>
-      </c>
-      <c r="H49" t="n">
-        <v/>
-      </c>
-      <c r="I49" t="n">
-        <v/>
       </c>
     </row>
     <row r="50">
@@ -2830,23 +2368,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v/>
-      </c>
-      <c r="E50" t="n">
-        <v/>
-      </c>
       <c r="F50" t="n">
         <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v/>
-      </c>
-      <c r="H50" t="n">
-        <v/>
-      </c>
-      <c r="I50" t="n">
-        <v/>
       </c>
     </row>
     <row r="51">
@@ -2865,23 +2388,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v/>
-      </c>
-      <c r="E51" t="n">
-        <v/>
-      </c>
       <c r="F51" t="n">
         <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v/>
-      </c>
-      <c r="H51" t="n">
-        <v/>
-      </c>
-      <c r="I51" t="n">
-        <v/>
       </c>
     </row>
     <row r="52">
@@ -2903,21 +2411,6 @@
       <c r="D52" t="n">
         <v>1</v>
       </c>
-      <c r="E52" t="n">
-        <v/>
-      </c>
-      <c r="F52" t="n">
-        <v/>
-      </c>
-      <c r="G52" t="n">
-        <v/>
-      </c>
-      <c r="H52" t="n">
-        <v/>
-      </c>
-      <c r="I52" t="n">
-        <v/>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2935,23 +2428,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v/>
-      </c>
       <c r="E53" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="F53" t="n">
-        <v/>
-      </c>
-      <c r="G53" t="n">
-        <v/>
-      </c>
-      <c r="H53" t="n">
-        <v/>
-      </c>
-      <c r="I53" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2970,23 +2448,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v/>
-      </c>
-      <c r="E54" t="n">
-        <v/>
-      </c>
-      <c r="F54" t="n">
-        <v/>
-      </c>
       <c r="G54" t="n">
         <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v/>
-      </c>
-      <c r="I54" t="n">
-        <v/>
       </c>
     </row>
     <row r="55">
@@ -3005,23 +2468,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v/>
-      </c>
-      <c r="E55" t="n">
-        <v/>
-      </c>
-      <c r="F55" t="n">
-        <v/>
-      </c>
-      <c r="G55" t="n">
-        <v/>
-      </c>
       <c r="H55" t="n">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v/>
       </c>
     </row>
     <row r="56">
@@ -3040,23 +2488,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v/>
-      </c>
-      <c r="E56" t="n">
-        <v/>
-      </c>
       <c r="F56" t="n">
         <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v/>
-      </c>
-      <c r="H56" t="n">
-        <v/>
-      </c>
-      <c r="I56" t="n">
-        <v/>
       </c>
     </row>
     <row r="57">
@@ -3075,23 +2508,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v/>
-      </c>
-      <c r="E57" t="n">
-        <v/>
-      </c>
       <c r="F57" t="n">
         <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v/>
-      </c>
-      <c r="H57" t="n">
-        <v/>
-      </c>
-      <c r="I57" t="n">
-        <v/>
       </c>
     </row>
     <row r="58">
@@ -3110,23 +2528,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v/>
-      </c>
-      <c r="E58" t="n">
-        <v/>
-      </c>
       <c r="F58" t="n">
         <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v/>
-      </c>
-      <c r="H58" t="n">
-        <v/>
-      </c>
-      <c r="I58" t="n">
-        <v/>
       </c>
     </row>
     <row r="59">
@@ -3145,23 +2548,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v/>
-      </c>
-      <c r="E59" t="n">
-        <v/>
-      </c>
       <c r="F59" t="n">
         <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v/>
-      </c>
-      <c r="H59" t="n">
-        <v/>
-      </c>
-      <c r="I59" t="n">
-        <v/>
       </c>
     </row>
     <row r="60">
@@ -3180,23 +2568,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v/>
-      </c>
-      <c r="E60" t="n">
-        <v/>
-      </c>
       <c r="F60" t="n">
         <v>1</v>
-      </c>
-      <c r="G60" t="n">
-        <v/>
-      </c>
-      <c r="H60" t="n">
-        <v/>
-      </c>
-      <c r="I60" t="n">
-        <v/>
       </c>
     </row>
     <row r="61">
@@ -3215,23 +2588,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v/>
-      </c>
-      <c r="E61" t="n">
-        <v/>
-      </c>
       <c r="F61" t="n">
         <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v/>
-      </c>
-      <c r="H61" t="n">
-        <v/>
-      </c>
-      <c r="I61" t="n">
-        <v/>
       </c>
     </row>
     <row r="62">
@@ -3250,23 +2608,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v/>
-      </c>
-      <c r="E62" t="n">
-        <v/>
-      </c>
       <c r="F62" t="n">
         <v>1</v>
-      </c>
-      <c r="G62" t="n">
-        <v/>
-      </c>
-      <c r="H62" t="n">
-        <v/>
-      </c>
-      <c r="I62" t="n">
-        <v/>
       </c>
     </row>
     <row r="63">
@@ -3285,23 +2628,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v/>
-      </c>
-      <c r="E63" t="n">
-        <v/>
-      </c>
       <c r="F63" t="n">
         <v>1</v>
-      </c>
-      <c r="G63" t="n">
-        <v/>
-      </c>
-      <c r="H63" t="n">
-        <v/>
-      </c>
-      <c r="I63" t="n">
-        <v/>
       </c>
     </row>
     <row r="64">
@@ -3320,23 +2648,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v/>
-      </c>
-      <c r="E64" t="n">
-        <v/>
-      </c>
       <c r="F64" t="n">
         <v>1</v>
-      </c>
-      <c r="G64" t="n">
-        <v/>
-      </c>
-      <c r="H64" t="n">
-        <v/>
-      </c>
-      <c r="I64" t="n">
-        <v/>
       </c>
     </row>
     <row r="65">
@@ -3355,23 +2668,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v/>
-      </c>
-      <c r="E65" t="n">
-        <v/>
-      </c>
       <c r="F65" t="n">
         <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v/>
-      </c>
-      <c r="H65" t="n">
-        <v/>
-      </c>
-      <c r="I65" t="n">
-        <v/>
       </c>
     </row>
     <row r="66">
@@ -3390,23 +2688,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v/>
-      </c>
-      <c r="E66" t="n">
-        <v/>
-      </c>
       <c r="F66" t="n">
         <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v/>
-      </c>
-      <c r="H66" t="n">
-        <v/>
-      </c>
-      <c r="I66" t="n">
-        <v/>
       </c>
     </row>
     <row r="67">
@@ -3425,23 +2708,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v/>
-      </c>
-      <c r="E67" t="n">
-        <v/>
-      </c>
       <c r="F67" t="n">
         <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v/>
-      </c>
-      <c r="H67" t="n">
-        <v/>
-      </c>
-      <c r="I67" t="n">
-        <v/>
       </c>
     </row>
     <row r="68">
@@ -3460,23 +2728,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v/>
-      </c>
-      <c r="E68" t="n">
-        <v/>
-      </c>
-      <c r="F68" t="n">
-        <v/>
-      </c>
       <c r="G68" t="n">
         <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v/>
-      </c>
-      <c r="I68" t="n">
-        <v/>
       </c>
     </row>
     <row r="69">
@@ -3495,23 +2748,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v/>
-      </c>
-      <c r="E69" t="n">
-        <v/>
-      </c>
-      <c r="F69" t="n">
-        <v/>
-      </c>
       <c r="G69" t="n">
         <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v/>
-      </c>
-      <c r="I69" t="n">
-        <v/>
       </c>
     </row>
     <row r="70">
@@ -3530,23 +2768,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v/>
-      </c>
-      <c r="E70" t="n">
-        <v/>
-      </c>
-      <c r="F70" t="n">
-        <v/>
-      </c>
       <c r="G70" t="n">
         <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v/>
-      </c>
-      <c r="I70" t="n">
-        <v/>
       </c>
     </row>
     <row r="71">
@@ -3565,23 +2788,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v/>
-      </c>
-      <c r="E71" t="n">
-        <v/>
-      </c>
-      <c r="F71" t="n">
-        <v/>
-      </c>
       <c r="G71" t="n">
         <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v/>
-      </c>
-      <c r="I71" t="n">
-        <v/>
       </c>
     </row>
     <row r="72">
@@ -3600,23 +2808,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v/>
-      </c>
-      <c r="E72" t="n">
-        <v/>
-      </c>
-      <c r="F72" t="n">
-        <v/>
-      </c>
       <c r="G72" t="n">
         <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v/>
-      </c>
-      <c r="I72" t="n">
-        <v/>
       </c>
     </row>
     <row r="73">
@@ -3635,23 +2828,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v/>
-      </c>
-      <c r="E73" t="n">
-        <v/>
-      </c>
-      <c r="F73" t="n">
-        <v/>
-      </c>
       <c r="G73" t="n">
         <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v/>
-      </c>
-      <c r="I73" t="n">
-        <v/>
       </c>
     </row>
     <row r="74">
@@ -3670,23 +2848,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v/>
-      </c>
-      <c r="E74" t="n">
-        <v/>
-      </c>
-      <c r="F74" t="n">
-        <v/>
-      </c>
       <c r="G74" t="n">
         <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v/>
-      </c>
-      <c r="I74" t="n">
-        <v/>
       </c>
     </row>
     <row r="75">
@@ -3705,23 +2868,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v/>
-      </c>
-      <c r="E75" t="n">
-        <v/>
-      </c>
-      <c r="F75" t="n">
-        <v/>
-      </c>
       <c r="G75" t="n">
         <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v/>
-      </c>
-      <c r="I75" t="n">
-        <v/>
       </c>
     </row>
     <row r="76">
@@ -3743,20 +2891,8 @@
       <c r="D76" t="n">
         <v>1</v>
       </c>
-      <c r="E76" t="n">
-        <v/>
-      </c>
-      <c r="F76" t="n">
-        <v/>
-      </c>
       <c r="G76" t="n">
         <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v/>
-      </c>
-      <c r="I76" t="n">
-        <v/>
       </c>
     </row>
     <row r="77">
@@ -3775,23 +2911,11 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v/>
-      </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" t="n">
-        <v/>
-      </c>
       <c r="G77" t="n">
         <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v/>
-      </c>
-      <c r="I77" t="n">
-        <v/>
       </c>
     </row>
     <row r="78">
@@ -3810,23 +2934,11 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v/>
-      </c>
-      <c r="E78" t="n">
-        <v/>
-      </c>
-      <c r="F78" t="n">
-        <v/>
-      </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v/>
       </c>
     </row>
     <row r="79">
@@ -3845,23 +2957,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v/>
-      </c>
-      <c r="E79" t="n">
-        <v/>
-      </c>
-      <c r="F79" t="n">
-        <v/>
-      </c>
       <c r="G79" t="n">
         <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v/>
-      </c>
-      <c r="I79" t="n">
-        <v/>
       </c>
     </row>
     <row r="80">
@@ -3889,14 +2986,8 @@
       <c r="F80" t="n">
         <v>1</v>
       </c>
-      <c r="G80" t="n">
-        <v/>
-      </c>
       <c r="H80" t="n">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v/>
       </c>
     </row>
     <row r="81">
@@ -3915,23 +3006,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v/>
-      </c>
-      <c r="E81" t="n">
-        <v/>
-      </c>
-      <c r="F81" t="n">
-        <v/>
-      </c>
       <c r="G81" t="n">
         <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v/>
-      </c>
-      <c r="I81" t="n">
-        <v/>
       </c>
     </row>
     <row r="82">
@@ -3950,23 +3026,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v/>
-      </c>
-      <c r="E82" t="n">
-        <v/>
-      </c>
-      <c r="F82" t="n">
-        <v/>
-      </c>
       <c r="G82" t="n">
         <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v/>
-      </c>
-      <c r="I82" t="n">
-        <v/>
       </c>
     </row>
     <row r="83">
@@ -3985,23 +3046,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v/>
-      </c>
-      <c r="E83" t="n">
-        <v/>
-      </c>
-      <c r="F83" t="n">
-        <v/>
-      </c>
       <c r="G83" t="n">
         <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v/>
-      </c>
-      <c r="I83" t="n">
-        <v/>
       </c>
     </row>
     <row r="84">
@@ -4020,23 +3066,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v/>
-      </c>
-      <c r="E84" t="n">
-        <v/>
-      </c>
-      <c r="F84" t="n">
-        <v/>
-      </c>
       <c r="G84" t="n">
         <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v/>
-      </c>
-      <c r="I84" t="n">
-        <v/>
       </c>
     </row>
     <row r="85">
@@ -4055,23 +3086,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v/>
-      </c>
-      <c r="E85" t="n">
-        <v/>
-      </c>
-      <c r="F85" t="n">
-        <v/>
-      </c>
       <c r="G85" t="n">
         <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v/>
-      </c>
-      <c r="I85" t="n">
-        <v/>
       </c>
     </row>
     <row r="86">
@@ -4090,23 +3106,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v/>
-      </c>
-      <c r="E86" t="n">
-        <v/>
-      </c>
-      <c r="F86" t="n">
-        <v/>
-      </c>
       <c r="G86" t="n">
         <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v/>
-      </c>
-      <c r="I86" t="n">
-        <v/>
       </c>
     </row>
     <row r="87">
@@ -4125,23 +3126,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v/>
-      </c>
-      <c r="E87" t="n">
-        <v/>
-      </c>
-      <c r="F87" t="n">
-        <v/>
-      </c>
       <c r="G87" t="n">
         <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v/>
-      </c>
-      <c r="I87" t="n">
-        <v/>
       </c>
     </row>
     <row r="88">
@@ -4160,23 +3146,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v/>
-      </c>
-      <c r="E88" t="n">
-        <v/>
-      </c>
-      <c r="F88" t="n">
-        <v/>
-      </c>
       <c r="G88" t="n">
         <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v/>
-      </c>
-      <c r="I88" t="n">
-        <v/>
       </c>
     </row>
     <row r="89">
@@ -4195,23 +3166,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v/>
-      </c>
-      <c r="E89" t="n">
-        <v/>
-      </c>
-      <c r="F89" t="n">
-        <v/>
-      </c>
-      <c r="G89" t="n">
-        <v/>
-      </c>
       <c r="H89" t="n">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v/>
       </c>
     </row>
     <row r="90">
@@ -4230,23 +3186,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v/>
-      </c>
-      <c r="E90" t="n">
-        <v/>
-      </c>
-      <c r="F90" t="n">
-        <v/>
-      </c>
-      <c r="G90" t="n">
-        <v/>
-      </c>
       <c r="H90" t="n">
         <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v/>
       </c>
     </row>
     <row r="91">
@@ -4265,23 +3206,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v/>
-      </c>
-      <c r="E91" t="n">
-        <v/>
-      </c>
-      <c r="F91" t="n">
-        <v/>
-      </c>
-      <c r="G91" t="n">
-        <v/>
-      </c>
       <c r="H91" t="n">
         <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v/>
       </c>
     </row>
     <row r="92">
@@ -4300,23 +3226,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v/>
-      </c>
-      <c r="E92" t="n">
-        <v/>
-      </c>
-      <c r="F92" t="n">
-        <v/>
-      </c>
-      <c r="G92" t="n">
-        <v/>
-      </c>
       <c r="H92" t="n">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v/>
       </c>
     </row>
     <row r="93">
@@ -4335,23 +3246,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v/>
-      </c>
-      <c r="E93" t="n">
-        <v/>
-      </c>
-      <c r="F93" t="n">
-        <v/>
-      </c>
-      <c r="G93" t="n">
-        <v/>
-      </c>
       <c r="H93" t="n">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v/>
       </c>
     </row>
     <row r="94">
@@ -4370,23 +3266,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v/>
-      </c>
-      <c r="E94" t="n">
-        <v/>
-      </c>
-      <c r="F94" t="n">
-        <v/>
-      </c>
-      <c r="G94" t="n">
-        <v/>
-      </c>
       <c r="H94" t="n">
         <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v/>
       </c>
     </row>
     <row r="95">
@@ -4405,23 +3286,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v/>
-      </c>
-      <c r="E95" t="n">
-        <v/>
-      </c>
-      <c r="F95" t="n">
-        <v/>
-      </c>
-      <c r="G95" t="n">
-        <v/>
-      </c>
       <c r="H95" t="n">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v/>
       </c>
     </row>
     <row r="96">
@@ -4440,23 +3306,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v/>
-      </c>
-      <c r="E96" t="n">
-        <v/>
-      </c>
-      <c r="F96" t="n">
-        <v/>
-      </c>
-      <c r="G96" t="n">
-        <v/>
-      </c>
       <c r="H96" t="n">
         <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v/>
       </c>
     </row>
     <row r="97">
@@ -4476,22 +3327,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="n">
-        <v/>
-      </c>
-      <c r="F97" t="n">
-        <v/>
-      </c>
-      <c r="G97" t="n">
-        <v/>
+        <v>0.999999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v/>
       </c>
     </row>
     <row r="98">
@@ -4510,23 +3349,11 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v/>
-      </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
-      <c r="F98" t="n">
-        <v/>
-      </c>
-      <c r="G98" t="n">
-        <v/>
-      </c>
       <c r="H98" t="n">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v/>
       </c>
     </row>
     <row r="99">
@@ -4545,23 +3372,11 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v/>
-      </c>
-      <c r="E99" t="n">
-        <v/>
-      </c>
-      <c r="F99" t="n">
-        <v/>
-      </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v/>
       </c>
     </row>
     <row r="100">
@@ -4580,23 +3395,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v/>
-      </c>
-      <c r="E100" t="n">
-        <v/>
-      </c>
-      <c r="F100" t="n">
-        <v/>
-      </c>
-      <c r="G100" t="n">
-        <v/>
-      </c>
       <c r="H100" t="n">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v/>
       </c>
     </row>
     <row r="101">
@@ -4615,23 +3415,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v/>
-      </c>
-      <c r="E101" t="n">
-        <v/>
-      </c>
-      <c r="F101" t="n">
-        <v/>
-      </c>
-      <c r="G101" t="n">
-        <v/>
-      </c>
       <c r="H101" t="n">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v/>
       </c>
     </row>
     <row r="102">
@@ -4650,23 +3435,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v/>
-      </c>
-      <c r="E102" t="n">
-        <v/>
-      </c>
-      <c r="F102" t="n">
-        <v/>
-      </c>
-      <c r="G102" t="n">
-        <v/>
-      </c>
       <c r="H102" t="n">
         <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v/>
       </c>
     </row>
     <row r="103">
@@ -4685,23 +3455,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v/>
-      </c>
-      <c r="E103" t="n">
-        <v/>
-      </c>
-      <c r="F103" t="n">
-        <v/>
-      </c>
-      <c r="G103" t="n">
-        <v/>
-      </c>
       <c r="H103" t="n">
         <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v/>
       </c>
     </row>
     <row r="104">
@@ -4720,23 +3475,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v/>
-      </c>
-      <c r="E104" t="n">
-        <v/>
-      </c>
-      <c r="F104" t="n">
-        <v/>
-      </c>
-      <c r="G104" t="n">
-        <v/>
-      </c>
       <c r="H104" t="n">
         <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v/>
       </c>
     </row>
     <row r="105">
@@ -4756,7 +3496,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
@@ -4766,12 +3506,6 @@
       </c>
       <c r="G105" t="n">
         <v>1</v>
-      </c>
-      <c r="H105" t="n">
-        <v/>
-      </c>
-      <c r="I105" t="n">
-        <v/>
       </c>
     </row>
     <row r="106">
@@ -4790,23 +3524,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v/>
-      </c>
-      <c r="E106" t="n">
-        <v/>
-      </c>
-      <c r="F106" t="n">
-        <v/>
-      </c>
-      <c r="G106" t="n">
-        <v/>
-      </c>
       <c r="H106" t="n">
         <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v/>
       </c>
     </row>
     <row r="107">
@@ -4825,23 +3544,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v/>
-      </c>
-      <c r="E107" t="n">
-        <v/>
-      </c>
-      <c r="F107" t="n">
-        <v/>
-      </c>
-      <c r="G107" t="n">
-        <v/>
-      </c>
       <c r="H107" t="n">
         <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v/>
       </c>
     </row>
     <row r="108">
@@ -4860,23 +3564,8 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v/>
-      </c>
-      <c r="E108" t="n">
-        <v/>
-      </c>
-      <c r="F108" t="n">
-        <v/>
-      </c>
-      <c r="G108" t="n">
-        <v/>
-      </c>
       <c r="H108" t="n">
         <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v/>
       </c>
     </row>
     <row r="109">
@@ -4895,23 +3584,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v/>
-      </c>
-      <c r="E109" t="n">
-        <v/>
-      </c>
-      <c r="F109" t="n">
-        <v/>
-      </c>
-      <c r="G109" t="n">
-        <v/>
-      </c>
       <c r="H109" t="n">
         <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v/>
       </c>
     </row>
     <row r="110">
@@ -4930,21 +3604,6 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v/>
-      </c>
-      <c r="E110" t="n">
-        <v/>
-      </c>
-      <c r="F110" t="n">
-        <v/>
-      </c>
-      <c r="G110" t="n">
-        <v/>
-      </c>
-      <c r="H110" t="n">
-        <v/>
-      </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
@@ -4965,21 +3624,6 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v/>
-      </c>
-      <c r="E111" t="n">
-        <v/>
-      </c>
-      <c r="F111" t="n">
-        <v/>
-      </c>
-      <c r="G111" t="n">
-        <v/>
-      </c>
-      <c r="H111" t="n">
-        <v/>
-      </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
@@ -5000,21 +3644,6 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v/>
-      </c>
-      <c r="E112" t="n">
-        <v/>
-      </c>
-      <c r="F112" t="n">
-        <v/>
-      </c>
-      <c r="G112" t="n">
-        <v/>
-      </c>
-      <c r="H112" t="n">
-        <v/>
-      </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
@@ -5035,21 +3664,6 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v/>
-      </c>
-      <c r="E113" t="n">
-        <v/>
-      </c>
-      <c r="F113" t="n">
-        <v/>
-      </c>
-      <c r="G113" t="n">
-        <v/>
-      </c>
-      <c r="H113" t="n">
-        <v/>
-      </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
@@ -5070,21 +3684,6 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v/>
-      </c>
-      <c r="E114" t="n">
-        <v/>
-      </c>
-      <c r="F114" t="n">
-        <v/>
-      </c>
-      <c r="G114" t="n">
-        <v/>
-      </c>
-      <c r="H114" t="n">
-        <v/>
-      </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
@@ -5105,21 +3704,6 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v/>
-      </c>
-      <c r="E115" t="n">
-        <v/>
-      </c>
-      <c r="F115" t="n">
-        <v/>
-      </c>
-      <c r="G115" t="n">
-        <v/>
-      </c>
-      <c r="H115" t="n">
-        <v/>
-      </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
@@ -5140,21 +3724,6 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v/>
-      </c>
-      <c r="E116" t="n">
-        <v/>
-      </c>
-      <c r="F116" t="n">
-        <v/>
-      </c>
-      <c r="G116" t="n">
-        <v/>
-      </c>
-      <c r="H116" t="n">
-        <v/>
-      </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
@@ -5175,21 +3744,6 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v/>
-      </c>
-      <c r="E117" t="n">
-        <v/>
-      </c>
-      <c r="F117" t="n">
-        <v/>
-      </c>
-      <c r="G117" t="n">
-        <v/>
-      </c>
-      <c r="H117" t="n">
-        <v/>
-      </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
@@ -5210,21 +3764,6 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v/>
-      </c>
-      <c r="E118" t="n">
-        <v/>
-      </c>
-      <c r="F118" t="n">
-        <v/>
-      </c>
-      <c r="G118" t="n">
-        <v/>
-      </c>
-      <c r="H118" t="n">
-        <v/>
-      </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
@@ -5245,21 +3784,6 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v/>
-      </c>
-      <c r="E119" t="n">
-        <v/>
-      </c>
-      <c r="F119" t="n">
-        <v/>
-      </c>
-      <c r="G119" t="n">
-        <v/>
-      </c>
-      <c r="H119" t="n">
-        <v/>
-      </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
@@ -5280,21 +3804,6 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v/>
-      </c>
-      <c r="E120" t="n">
-        <v/>
-      </c>
-      <c r="F120" t="n">
-        <v/>
-      </c>
-      <c r="G120" t="n">
-        <v/>
-      </c>
-      <c r="H120" t="n">
-        <v/>
-      </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
@@ -5315,21 +3824,6 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v/>
-      </c>
-      <c r="E121" t="n">
-        <v/>
-      </c>
-      <c r="F121" t="n">
-        <v/>
-      </c>
-      <c r="G121" t="n">
-        <v/>
-      </c>
-      <c r="H121" t="n">
-        <v/>
-      </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
@@ -5350,21 +3844,6 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v/>
-      </c>
-      <c r="E122" t="n">
-        <v/>
-      </c>
-      <c r="F122" t="n">
-        <v/>
-      </c>
-      <c r="G122" t="n">
-        <v/>
-      </c>
-      <c r="H122" t="n">
-        <v/>
-      </c>
       <c r="I122" t="n">
         <v>1</v>
       </c>
@@ -5385,21 +3864,6 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v/>
-      </c>
-      <c r="E123" t="n">
-        <v/>
-      </c>
-      <c r="F123" t="n">
-        <v/>
-      </c>
-      <c r="G123" t="n">
-        <v/>
-      </c>
-      <c r="H123" t="n">
-        <v/>
-      </c>
       <c r="I123" t="n">
         <v>1</v>
       </c>
@@ -5420,21 +3884,6 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v/>
-      </c>
-      <c r="E124" t="n">
-        <v/>
-      </c>
-      <c r="F124" t="n">
-        <v/>
-      </c>
-      <c r="G124" t="n">
-        <v/>
-      </c>
-      <c r="H124" t="n">
-        <v/>
-      </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
@@ -5455,21 +3904,6 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v/>
-      </c>
-      <c r="E125" t="n">
-        <v/>
-      </c>
-      <c r="F125" t="n">
-        <v/>
-      </c>
-      <c r="G125" t="n">
-        <v/>
-      </c>
-      <c r="H125" t="n">
-        <v/>
-      </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
@@ -5490,21 +3924,6 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v/>
-      </c>
-      <c r="E126" t="n">
-        <v/>
-      </c>
-      <c r="F126" t="n">
-        <v/>
-      </c>
-      <c r="G126" t="n">
-        <v/>
-      </c>
-      <c r="H126" t="n">
-        <v/>
-      </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
@@ -5525,21 +3944,6 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v/>
-      </c>
-      <c r="E127" t="n">
-        <v/>
-      </c>
-      <c r="F127" t="n">
-        <v/>
-      </c>
-      <c r="G127" t="n">
-        <v/>
-      </c>
-      <c r="H127" t="n">
-        <v/>
-      </c>
       <c r="I127" t="n">
         <v>1</v>
       </c>
@@ -5560,21 +3964,6 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v/>
-      </c>
-      <c r="E128" t="n">
-        <v/>
-      </c>
-      <c r="F128" t="n">
-        <v/>
-      </c>
-      <c r="G128" t="n">
-        <v/>
-      </c>
-      <c r="H128" t="n">
-        <v/>
-      </c>
       <c r="I128" t="n">
         <v>1</v>
       </c>
@@ -5594,21 +3983,6 @@
         <is>
           <t>i4</t>
         </is>
-      </c>
-      <c r="D129" t="n">
-        <v/>
-      </c>
-      <c r="E129" t="n">
-        <v/>
-      </c>
-      <c r="F129" t="n">
-        <v/>
-      </c>
-      <c r="G129" t="n">
-        <v/>
-      </c>
-      <c r="H129" t="n">
-        <v/>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -5865,7 +4239,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.866208052249139e-05</v>
+        <v>1.689536966811641e-16</v>
       </c>
     </row>
   </sheetData>
@@ -5889,7 +4263,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.08205699920654297</v>
+        <v>0.0779999999795109</v>
       </c>
     </row>
   </sheetData>
@@ -5951,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>259.577515216613</v>
+        <v>892.5823330255464</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
